--- a/data/tottus.xlsx
+++ b/data/tottus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t xml:space="preserve">nombre</t>
   </si>
@@ -31,31 +31,238 @@
     <t xml:space="preserve">password </t>
   </si>
   <si>
-    <t xml:space="preserve">GONZALO CALDERON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCALDERON@CASA-ANDINA.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCALDERON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REYNALDO CHAMORRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCHAMORRO@CASA-ANDINA.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RCHAMORRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KELLY NEYRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KNEYRA@CASA-ANDINA.COM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KNEYRA</t>
+    <t xml:space="preserve">Juan Alberto Antezana Delgado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jantezana@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jantezana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres Cabrerizo Rey De Castro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acabrerizor@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acabrerizor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Roberto Caro Paccini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jcarop@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jcarop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hugo Ramon Carrillo Goyoneche </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hcarrillo@vitapro.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hcarrillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramon Augusto Cisneros Lopez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rcisneros@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rcisneros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Fernando Del Campo Vegas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdelcampo@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdelcampo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Delfino Mariano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdelfino@alicorp.com.ar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdelfino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Fernando Espinoza Menacho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">despinozam@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">despinozam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Enrique Estrada Rondon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lestradar@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lestradar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Carlos Galfre Dalmau </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jgalfred@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jgalfred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco Antonio Gil Vivar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mgil@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mgilvivar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Alberto Hernandez Bazo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chernandezb@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chernandezb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aldo Manfredo Hidalgo Mouchard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ahidalgo@psa.ind.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ahidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Jose Malo Rob </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pmalo@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pmalorob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo Martinez Del Pino </t>
+  </si>
+  <si>
+    <t xml:space="preserve">emartinez@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emartinez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebeca Elisa Miranda Dammert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rmirandad@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rmirandad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Margarita Morales Murillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmoralesmu@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmoralesmu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magdalena Sofia Morales Valentin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmoralesval@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmoralesval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gianfranco Martin Musso Lazaro De Ortecho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gmussol@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gmussol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Javier Quinde Razuri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fquinder@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fquinder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paola Virginia Ruchman Lazo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pruchmanl@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pruchmanl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luigi Antonio Scarin Obando </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lscarin@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lscarin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefan Andrew Stern Uralde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssternu@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssternu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel Antonio Takeda Tanimoto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mtakeda@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mtakeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabricio Vargas Elias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fvargasel@vitapro.com.ec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fvargasel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Eduardo Zuzunaga Vargas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">czuzunagav@alicorp.com.pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">czuzunagav</t>
   </si>
 </sst>
 </file>
@@ -241,19 +448,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.6836734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1071428571429"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.2397959183673"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.7908163265306"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
@@ -302,6 +509,617 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
